--- a/Healthcare/Stryker.xlsx
+++ b/Healthcare/Stryker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A87937-F8A0-CF4F-BAC6-7EA6F0B5FFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26D56F-9DAE-3B45-A8EB-4B0C4A21669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2525,9 +2525,11 @@
     <v>Powered by Refinitiv</v>
     <v>306.56</v>
     <v>188.84</v>
-    <v>0.94779999999999998</v>
-    <v>0.11</v>
-    <v>3.8559999999999999E-4</v>
+    <v>0.94679999999999997</v>
+    <v>0.18</v>
+    <v>6.6080000000000002E-4</v>
+    <v>-0.54</v>
+    <v>-1.9810000000000001E-3</v>
     <v>USD</v>
     <v>Stryker Corporation (Stryker) is a medical technology company. The Company offers products and services in Medical and Surgical, Neurotechnology, Orthopedics and Spine that help improve patient and healthcare outcomes. The Company operates through two segments: MedSurg and Neurotechnology, and Orthopedics and Spine. Its products include surgical equipment and surgical navigation systems; endoscopic and communications systems; patient handling, emergency medical equipment and intensive care disposable products; clinical communication and workflow solutions; neurosurgical and neurovascular devices; implants used in joint replacement and trauma surgeries; Mako Robotic-Arm Assisted technology; spinal devices; as well as other products used in a variety of medical specialties. Stryker is also engaged in the design and development of neurointerventional devices for the treatment of intracranial aneurysms. Stryker's geographical segments include United States and International.</v>
     <v>51000</v>
@@ -2535,24 +2537,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2825 Airview Blvd, KALAMAZOO, MI, 49002 US</v>
-    <v>289.14999999999998</v>
+    <v>275.85000000000002</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45065.989455404684</v>
+    <v>45072.994789860939</v>
     <v>0</v>
-    <v>284.19</v>
-    <v>108326500000</v>
+    <v>271.33</v>
+    <v>103471400000</v>
     <v>STRYKER CORPORATION</v>
     <v>STRYKER CORPORATION</v>
-    <v>286</v>
-    <v>41.5291</v>
-    <v>285.26</v>
-    <v>285.37</v>
+    <v>273.08999999999997</v>
+    <v>39.6417</v>
+    <v>272.39999999999998</v>
+    <v>272.58</v>
+    <v>272.04000000000002</v>
     <v>379600000</v>
     <v>SYK</v>
     <v>STRYKER CORPORATION (XNYS:SYK)</v>
-    <v>1036803</v>
-    <v>1295307</v>
+    <v>1091667</v>
+    <v>1304164</v>
     <v>1946</v>
   </rv>
   <rv s="2">
@@ -2584,6 +2587,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2604,6 +2609,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2620,7 +2626,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2631,13 +2637,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2703,13 +2712,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2754,6 +2769,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2761,6 +2779,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3122,10 +3143,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP101" sqref="AP101"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5344,15 +5365,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>5.8716732614233837</v>
+        <v>5.6085099463385548</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>45.939991518235793</v>
+        <v>43.88100084817642</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>53.205550098231825</v>
+        <v>50.82092337917485</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15025,7 +15046,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.94779999999999998</v>
+        <v>0.94679999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15276,7 +15297,7 @@
       </c>
       <c r="AU97" s="37">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.1752790000000006E-2</v>
+        <v>8.1709740000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15651,7 +15672,7 @@
       </c>
       <c r="AU100" s="35">
         <f>AU99/AU103</f>
-        <v>0.10750198764979464</v>
+        <v>0.11198135246147851</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15777,7 +15798,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>108326500000</v>
+        <v>103471400000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15903,7 +15924,7 @@
       </c>
       <c r="AU102" s="35">
         <f>AU101/AU103</f>
-        <v>0.89249801235020532</v>
+        <v>0.88801864753852144</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16029,7 +16050,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>121374500000</v>
+        <v>116519400000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16319,7 +16340,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2964202579083745E-2</v>
+        <v>7.2559772805524225E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16517,7 +16538,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>60862012500.6838</v>
+        <v>61379559336.634399</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16548,7 +16569,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>63710010448.931145</v>
+        <v>64227557284.881744</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16558,7 +16579,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>7.2964202579083745E-2</v>
+        <v>7.2559772805524225E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16573,7 +16594,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>52877519033.425011</v>
+        <v>53334272859.62368</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16600,7 +16621,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>41757519033.425011</v>
+        <v>42214272859.62368</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16618,7 +16639,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>108.655533615397</v>
+        <v>109.84403407867322</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16627,7 +16648,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>285.37</v>
+        <v>272.58</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16636,7 +16657,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.61924682476995829</v>
+        <v>-0.59702093301535974</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
